--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3386000.588301145</v>
+        <v>3490180.222752216</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>117.483863558099</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>191.2490250244981</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.91842046302225</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>82.92583577740128</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>150.9601371840616</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.69315952755335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>99.72921986893171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>183.1076175753965</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.7199646803063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>232.360490578278</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>26.2852395983391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>13.10385380111512</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>38.76543552489255</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>91.66636605273473</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.1359327421204</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>83.53432244437089</v>
+        <v>261.3661834507345</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>140.307475200959</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>100.58583229927</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>100.0416311957226</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>113.5413580759688</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>143.3175246302651</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1053.237939387931</v>
       </c>
       <c r="D2" t="n">
         <v>934.5673701373257</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3022.134319778188</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2768.603843052024</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.540955708454</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.772300438339</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.306542177259</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.167210201447</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.9203821015085</v>
+        <v>2046.701180270097</v>
       </c>
       <c r="C4" t="n">
-        <v>482.9841991736016</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="D4" t="n">
-        <v>332.8675597612659</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="E4" t="n">
-        <v>332.8675597612659</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="F4" t="n">
-        <v>185.9776122633555</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>2738.559394280827</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995258</v>
+        <v>2449.142224243867</v>
       </c>
       <c r="X4" t="n">
-        <v>651.9203821015085</v>
+        <v>2449.142224243867</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.9203821015085</v>
+        <v>2228.349645100337</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993392</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.859418723278</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.393660462198</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873.2974438277585</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>873.2974438277585</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1550.651474445222</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X7" t="n">
-        <v>1094.090022971289</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y7" t="n">
-        <v>873.2974438277585</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1896.503151925173</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1527.540634984761</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1169.274936378011</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2588.318918149022</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>652.894418388452</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C10" t="n">
-        <v>652.894418388452</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1914.05833212777</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1692.291716697297</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1403.18884982294</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1148.504361617053</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.894418388452</v>
+        <v>859.0871915800925</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>1024.063349920563</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>855.1271669926557</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>705.0105275803199</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>557.0974339979268</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>410.2074865000164</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1279.612546871729</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.550723916711</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888042</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1893.082977031346</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.398488825459</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.981318788498</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.991767890481</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1991887469508</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.647281583948</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.711098656041</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U34" t="n">
-        <v>4370.179534698583</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V34" t="n">
-        <v>4115.495046492696</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W34" t="n">
-        <v>3826.077876455735</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X34" t="n">
-        <v>3598.088325557718</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y34" t="n">
-        <v>3377.295746414188</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.6374272687975</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2302.197907186053</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2082.596442208995</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1793.521215553193</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1538.836727347306</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1249.419557310345</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1021.430006412328</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>800.6374272687975</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.4813855737353</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>73.85777223953411</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.6960474398169367</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>202.6501519448732</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>26.93934589766886</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.1428431935216</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409392967</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25558,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>103.8640922513194</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>37.7087613713795</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.842883194</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.8081118428</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184281</v>
-      </c>
       <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
@@ -26457,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-770008.8920477177</v>
       </c>
       <c r="C6" t="n">
-        <v>558735.8536798751</v>
+        <v>558735.853679875</v>
       </c>
       <c r="D6" t="n">
-        <v>558735.8536798748</v>
+        <v>558735.853679875</v>
       </c>
       <c r="E6" t="n">
         <v>306468.8049701501</v>
       </c>
       <c r="F6" t="n">
-        <v>631881.2667775054</v>
+        <v>631881.2667775055</v>
       </c>
       <c r="G6" t="n">
-        <v>631881.2667775053</v>
+        <v>631881.2667775057</v>
       </c>
       <c r="H6" t="n">
-        <v>631881.2667775054</v>
+        <v>631881.2667775056</v>
       </c>
       <c r="I6" t="n">
-        <v>631881.2667775053</v>
+        <v>631881.2667775055</v>
       </c>
       <c r="J6" t="n">
-        <v>414350.0643802278</v>
+        <v>414350.0643802279</v>
       </c>
       <c r="K6" t="n">
-        <v>631881.2667775056</v>
+        <v>631881.2667775057</v>
       </c>
       <c r="L6" t="n">
         <v>631881.2667775057</v>
       </c>
       <c r="M6" t="n">
-        <v>546826.2388419936</v>
+        <v>546826.2388419937</v>
       </c>
       <c r="N6" t="n">
         <v>631881.2667775055</v>
       </c>
       <c r="O6" t="n">
-        <v>631881.2667775057</v>
+        <v>631881.2667775053</v>
       </c>
       <c r="P6" t="n">
-        <v>631881.2667775056</v>
+        <v>631881.2667775055</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>237.199178062584</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>12.66894511512206</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>144.107387796006</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>169.2118075464267</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>52.95783295555853</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.5447791285002</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>48.88625314928065</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>69.03002574843146</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.0138769831742</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>149.5698794939838</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>122.3302334198733</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>176.6651715303268</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768141</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>344.6306853939244</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969399</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>206.7892464195654</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3490180.222752216</v>
+        <v>3486167.612738224</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7881031.456030817</v>
+        <v>7881031.456030818</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>117.483863558099</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>199.6710892234282</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>165.6040273698191</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>82.92583577740128</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>150.9601371840616</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>183.1076175753965</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>232.360490578278</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>177.2979137777577</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.02719212039582</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>13.10385380111512</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>91.66636605273473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.1359327421204</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113816</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>261.3661834507345</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>140.307475200959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946272</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>113.5413580759688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>24.83266606353065</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328342</v>
+        <v>2249.271807195286</v>
       </c>
       <c r="C2" t="n">
-        <v>1053.237939387931</v>
+        <v>1880.309290254874</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1522.043591648124</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1136.255339049879</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>725.269434260272</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>310.1969841052684</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392464</v>
+        <v>2635.871647259408</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2046.701180270097</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>1877.76499734219</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>1877.76499734219</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>1729.851903759797</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.322864763051</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V4" t="n">
-        <v>2738.559394280827</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>2449.142224243867</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>2449.142224243867</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>2228.349645100337</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3062.830166081658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3062.830166081658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.767278738087</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1550.651474445222</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1261.234304408261</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.244753510244</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.4521743667135</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925173</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.540634984761</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.274936378011</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>702.6702671434331</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>287.5978169884295</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810557</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989294</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,16 +4886,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.4387267498528</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>225.8880831339174</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>79.67089635177516</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1914.05833212777</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1692.291716697297</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1403.18884982294</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1148.504361617053</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W10" t="n">
-        <v>859.0871915800925</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>859.0871915800925</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.0871915800925</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1024.063349920563</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>855.1271669926557</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>705.0105275803199</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>557.0974339979268</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>410.2074865000164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1205.711814750802</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5433,7 +5433,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.405126015259</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y16" t="n">
-        <v>1279.612546871729</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6487,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6615,10 +6615,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="32">
@@ -6694,49 +6694,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,19 +7162,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2332.274843099484</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2043.199616443682</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1788.515128237795</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.097958200834</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1271.108407302817</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.829365488567</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>883.8931825606599</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>733.7765431483241</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>585.863449565931</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>438.9735020680206</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>271.7774027829005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2227.361618603201</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.677130397314</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.259960360354</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.270409462336</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.477830318806</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>73.85777223953411</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6960474398169367</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>106.0841272570742</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>24.81829093850962</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>26.93934589766886</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>142.4141550350972</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26432,19 +26432,19 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
@@ -26453,10 +26453,10 @@
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26524,46 +26524,46 @@
         <v>-770008.8920477177</v>
       </c>
       <c r="C6" t="n">
-        <v>558735.853679875</v>
+        <v>558735.8536798751</v>
       </c>
       <c r="D6" t="n">
-        <v>558735.853679875</v>
+        <v>558735.8536798754</v>
       </c>
       <c r="E6" t="n">
-        <v>306468.8049701501</v>
+        <v>306121.4257157932</v>
       </c>
       <c r="F6" t="n">
-        <v>631881.2667775055</v>
+        <v>631533.8875231484</v>
       </c>
       <c r="G6" t="n">
-        <v>631881.2667775057</v>
+        <v>631533.8875231486</v>
       </c>
       <c r="H6" t="n">
-        <v>631881.2667775056</v>
+        <v>631533.8875231487</v>
       </c>
       <c r="I6" t="n">
-        <v>631881.2667775055</v>
+        <v>631533.8875231483</v>
       </c>
       <c r="J6" t="n">
-        <v>414350.0643802279</v>
+        <v>414002.6851258707</v>
       </c>
       <c r="K6" t="n">
-        <v>631881.2667775057</v>
+        <v>631533.8875231484</v>
       </c>
       <c r="L6" t="n">
-        <v>631881.2667775057</v>
+        <v>631533.8875231487</v>
       </c>
       <c r="M6" t="n">
-        <v>546826.2388419937</v>
+        <v>546478.8595876364</v>
       </c>
       <c r="N6" t="n">
-        <v>631881.2667775055</v>
+        <v>631533.8875231483</v>
       </c>
       <c r="O6" t="n">
-        <v>631881.2667775053</v>
+        <v>631533.8875231483</v>
       </c>
       <c r="P6" t="n">
-        <v>631881.2667775055</v>
+        <v>631533.8875231484</v>
       </c>
     </row>
   </sheetData>
@@ -26795,19 +26795,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.199178062584</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>94.93667516389226</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.94492190635015</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>169.2118075464267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>52.95783295555853</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>69.03002574843146</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>149.5698794939838</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>117.3098506095628</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944229</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>176.6651715303268</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33259,31 +33259,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193505</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3486167.612738224</v>
+        <v>3487928.14304101</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7881031.456030818</v>
+        <v>7881031.456030817</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.4741679217943</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>199.6710892234282</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>112.0808863526773</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>165.6040273698191</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506837</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>9.099193441179251</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>251.6619297099699</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777577</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958526</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039582</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444143</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576158</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>42.53134576113816</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673027</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>53.08838020946272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710102</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>239.7247859410136</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2249.271807195286</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1880.309290254874</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1522.043591648124</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1136.255339049879</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>725.269434260272</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>310.1969841052684</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259408</v>
+        <v>2489.08073960507</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>793.5809963705854</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>624.6448134426785</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>474.5281740303427</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>326.6150804479496</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>179.7251329500392</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1196.022040344355</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>975.2294612008251</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2388.24380226932</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995014</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592588</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038043</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490881</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926365</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>702.6702671434331</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884295</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2599.371408077975</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102165</v>
+        <v>2599.371408077975</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>1007.446783179744</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518377</v>
+        <v>838.510600251837</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395019</v>
+        <v>688.3939608395012</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571088</v>
+        <v>540.4808672571081</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591984</v>
+        <v>393.5909197591977</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339174</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4968,19 +4968,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088492</v>
@@ -5001,7 +5001,7 @@
         <v>1927.294548088492</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1637.877378051531</v>
       </c>
       <c r="X10" t="n">
         <v>1409.887827153514</v>
@@ -5020,37 +5020,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,52 +5275,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.708435085168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572612</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154078</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,34 +6481,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
         <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.0841272570742</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.45968844823051</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="10">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.723256517081231e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184262</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770008.8920477177</v>
+        <v>-770008.892047717</v>
       </c>
       <c r="C6" t="n">
-        <v>558735.8536798751</v>
+        <v>558735.853679875</v>
       </c>
       <c r="D6" t="n">
         <v>558735.8536798754</v>
       </c>
       <c r="E6" t="n">
-        <v>306121.4257157932</v>
+        <v>306434.0670447141</v>
       </c>
       <c r="F6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="G6" t="n">
-        <v>631533.8875231486</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="H6" t="n">
-        <v>631533.8875231487</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="I6" t="n">
-        <v>631533.8875231483</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="J6" t="n">
-        <v>414002.6851258707</v>
+        <v>414315.3264547922</v>
       </c>
       <c r="K6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="L6" t="n">
-        <v>631533.8875231487</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="M6" t="n">
-        <v>546478.8595876364</v>
+        <v>546791.5009165579</v>
       </c>
       <c r="N6" t="n">
-        <v>631533.8875231483</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="O6" t="n">
-        <v>631533.8875231483</v>
+        <v>631846.5288520696</v>
       </c>
       <c r="P6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.5288520698</v>
       </c>
     </row>
   </sheetData>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>240.2596737416863</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>94.93667516389226</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.94492190635094</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.94492190635015</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194512</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>377.1387452148743</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276458</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>131.0719119535107</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095628</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.32522828944296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944229</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30222,10 +30222,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-2.604658557802081e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,37 +31594,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31633,7 +31633,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31682,16 +31682,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31700,19 +31700,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460048</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224318</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
